--- a/Excel103-AdvancedExercises.xlsx
+++ b/Excel103-AdvancedExercises.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Excel-Udemy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F304C110-FB11-4BA8-8DF6-8F67D36592A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDBA9A3-1573-4BBA-9286-E0232086D958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IF Function" sheetId="4" r:id="rId1"/>
@@ -105,7 +105,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1964,13 +1967,13 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2673,21 +2676,21 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="1.109375" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" customWidth="1"/>
+    <col min="7" max="7" width="1.08984375" customWidth="1"/>
+    <col min="8" max="8" width="20.08984375" customWidth="1"/>
+    <col min="9" max="9" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.8" thickBot="1"/>
-    <row r="2" spans="1:9" ht="16.2" thickBot="1">
+    <row r="1" spans="1:9" ht="13" thickBot="1"/>
+    <row r="2" spans="1:9" ht="16" thickBot="1">
       <c r="A2" s="129" t="s">
         <v>280</v>
       </c>
@@ -2703,8 +2706,8 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4" thickTop="1" thickBot="1"/>
-    <row r="4" spans="1:9" ht="13.8">
+    <row r="3" spans="1:9" ht="13.5" thickTop="1" thickBot="1"/>
+    <row r="4" spans="1:9" ht="14">
       <c r="A4" s="41" t="s">
         <v>1</v>
       </c>
@@ -2730,7 +2733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.6">
+    <row r="5" spans="1:9" ht="15.5">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -2759,7 +2762,7 @@
         <v>BONUS</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.6">
+    <row r="6" spans="1:9" ht="15.5">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -2784,11 +2787,11 @@
         <v>NO</v>
       </c>
       <c r="I6" s="2" t="str">
-        <f t="shared" ref="I6:I9" si="0">IF(AND(H6 = "YES",MIN(B6:E6) &gt;= 8000),"BONUS","NO BONUS")</f>
+        <f t="shared" ref="I6:I8" si="0">IF(AND(H6 = "YES",MIN(B6:E6) &gt;= 8000),"BONUS","NO BONUS")</f>
         <v>NO BONUS</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.6">
+    <row r="7" spans="1:9" ht="15.5">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -2817,7 +2820,7 @@
         <v>NO BONUS</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.6">
+    <row r="8" spans="1:9" ht="15.5">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -2846,7 +2849,7 @@
         <v>BONUS</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.2" thickBot="1">
+    <row r="9" spans="1:9" ht="16" thickBot="1">
       <c r="A9" s="16" t="s">
         <v>14</v>
       </c>
@@ -2875,7 +2878,7 @@
         <v>NO BONUS</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13.8">
+    <row r="10" spans="1:9" ht="14">
       <c r="A10" s="48" t="s">
         <v>223</v>
       </c>
@@ -2891,7 +2894,7 @@
       <c r="E10" s="54"/>
       <c r="F10" s="54"/>
     </row>
-    <row r="11" spans="1:9" s="50" customFormat="1" ht="13.8">
+    <row r="11" spans="1:9" s="50" customFormat="1" ht="14">
       <c r="A11" s="49"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1">
@@ -2928,14 +2931,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6">
+    <row r="1" spans="1:3" ht="15.5">
       <c r="A1" s="72" t="s">
         <v>242</v>
       </c>
@@ -2986,198 +2989,191 @@
       <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="3.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" customWidth="1"/>
+    <col min="4" max="4" width="3.08984375" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" ht="13">
       <c r="B2" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="132" t="s">
+      <c r="E2" s="134" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="132"/>
-    </row>
-    <row r="3" spans="2:6">
+      <c r="F2" s="134"/>
+    </row>
+    <row r="3" spans="2:6" ht="13">
       <c r="B3" s="25" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="133" t="str">
+      <c r="E3" s="132" t="str">
         <f>CONCATENATE(C3," ",B3)</f>
         <v>Howard Smith</v>
       </c>
-      <c r="F3" s="134"/>
-    </row>
-    <row r="4" spans="2:6">
+      <c r="F3" s="133"/>
+    </row>
+    <row r="4" spans="2:6" ht="13">
       <c r="B4" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="133"/>
-      <c r="F4" s="134"/>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="E4" s="132"/>
+      <c r="F4" s="133"/>
+    </row>
+    <row r="5" spans="2:6" ht="13">
       <c r="B5" s="25" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="133"/>
-      <c r="F5" s="134"/>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="E5" s="132"/>
+      <c r="F5" s="133"/>
+    </row>
+    <row r="6" spans="2:6" ht="13">
       <c r="B6" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="133"/>
-      <c r="F6" s="134"/>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="E6" s="132"/>
+      <c r="F6" s="133"/>
+    </row>
+    <row r="7" spans="2:6" ht="13">
       <c r="B7" s="25" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="133"/>
-      <c r="F7" s="134"/>
-    </row>
-    <row r="8" spans="2:6">
+      <c r="E7" s="132"/>
+      <c r="F7" s="133"/>
+    </row>
+    <row r="8" spans="2:6" ht="13">
       <c r="B8" s="25" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="133"/>
-      <c r="F8" s="134"/>
-    </row>
-    <row r="9" spans="2:6">
+      <c r="E8" s="132"/>
+      <c r="F8" s="133"/>
+    </row>
+    <row r="9" spans="2:6" ht="13">
       <c r="B9" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="133"/>
-      <c r="F9" s="134"/>
-    </row>
-    <row r="10" spans="2:6">
+      <c r="E9" s="132"/>
+      <c r="F9" s="133"/>
+    </row>
+    <row r="10" spans="2:6" ht="13">
       <c r="B10" s="25" t="s">
         <v>52</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="133"/>
-      <c r="F10" s="134"/>
-    </row>
-    <row r="11" spans="2:6">
+      <c r="E10" s="132"/>
+      <c r="F10" s="133"/>
+    </row>
+    <row r="11" spans="2:6" ht="13">
       <c r="B11" s="25" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="133"/>
-      <c r="F11" s="134"/>
-    </row>
-    <row r="12" spans="2:6">
+      <c r="E11" s="132"/>
+      <c r="F11" s="133"/>
+    </row>
+    <row r="12" spans="2:6" ht="13">
       <c r="B12" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="133"/>
-      <c r="F12" s="134"/>
-    </row>
-    <row r="13" spans="2:6">
+      <c r="E12" s="132"/>
+      <c r="F12" s="133"/>
+    </row>
+    <row r="13" spans="2:6" ht="13">
       <c r="B13" s="25" t="s">
         <v>62</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="133"/>
-      <c r="F13" s="134"/>
-    </row>
-    <row r="14" spans="2:6">
+      <c r="E13" s="132"/>
+      <c r="F13" s="133"/>
+    </row>
+    <row r="14" spans="2:6" ht="13">
       <c r="B14" s="25" t="s">
         <v>66</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="133"/>
-      <c r="F14" s="134"/>
-    </row>
-    <row r="15" spans="2:6">
+      <c r="E14" s="132"/>
+      <c r="F14" s="133"/>
+    </row>
+    <row r="15" spans="2:6" ht="13">
       <c r="B15" s="25" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="133"/>
-      <c r="F15" s="134"/>
-    </row>
-    <row r="16" spans="2:6">
+      <c r="E15" s="132"/>
+      <c r="F15" s="133"/>
+    </row>
+    <row r="16" spans="2:6" ht="13">
       <c r="B16" s="25" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="133"/>
-      <c r="F16" s="134"/>
-    </row>
-    <row r="17" spans="2:6">
+      <c r="E16" s="132"/>
+      <c r="F16" s="133"/>
+    </row>
+    <row r="17" spans="2:6" ht="13">
       <c r="B17" s="25" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="133"/>
-      <c r="F17" s="134"/>
-    </row>
-    <row r="18" spans="2:6">
+      <c r="E17" s="132"/>
+      <c r="F17" s="133"/>
+    </row>
+    <row r="18" spans="2:6" ht="13">
       <c r="B18" s="25" t="s">
         <v>77</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="133"/>
-      <c r="F18" s="134"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
@@ -3188,6 +3184,13 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3204,21 +3207,21 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="1.109375" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" customWidth="1"/>
+    <col min="7" max="7" width="1.08984375" customWidth="1"/>
+    <col min="8" max="8" width="20.08984375" customWidth="1"/>
+    <col min="9" max="9" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.8" thickBot="1"/>
-    <row r="2" spans="1:9" ht="16.2" thickBot="1">
+    <row r="1" spans="1:9" ht="13" thickBot="1"/>
+    <row r="2" spans="1:9" ht="16" thickBot="1">
       <c r="A2" s="129" t="s">
         <v>222</v>
       </c>
@@ -3234,8 +3237,8 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4" thickTop="1" thickBot="1"/>
-    <row r="4" spans="1:9" ht="13.8">
+    <row r="3" spans="1:9" ht="13.5" thickTop="1" thickBot="1"/>
+    <row r="4" spans="1:9" ht="14">
       <c r="A4" s="41" t="s">
         <v>1</v>
       </c>
@@ -3261,7 +3264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.6">
+    <row r="5" spans="1:9" ht="15.5">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -3290,7 +3293,7 @@
         <v>BONUS</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.6">
+    <row r="6" spans="1:9" ht="15.5">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -3319,7 +3322,7 @@
         <v>NO BONUS</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.6">
+    <row r="7" spans="1:9" ht="15.5">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -3348,7 +3351,7 @@
         <v>NO BONUS</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.6">
+    <row r="8" spans="1:9" ht="15.5">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -3377,7 +3380,7 @@
         <v>BONUS</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.2" thickBot="1">
+    <row r="9" spans="1:9" ht="16" thickBot="1">
       <c r="A9" s="16" t="s">
         <v>14</v>
       </c>
@@ -3406,7 +3409,7 @@
         <v>NO BONUS</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13.8">
+    <row r="10" spans="1:9" ht="14">
       <c r="A10" s="48" t="s">
         <v>223</v>
       </c>
@@ -3431,7 +3434,7 @@
         <v>176211</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="50" customFormat="1" ht="13.8">
+    <row r="11" spans="1:9" s="50" customFormat="1" ht="14">
       <c r="A11" s="49"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1">
@@ -3477,13 +3480,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="13">
       <c r="A2" s="71" t="s">
         <v>249</v>
       </c>
@@ -3506,21 +3509,21 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="1.109375" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" customWidth="1"/>
+    <col min="7" max="7" width="1.08984375" customWidth="1"/>
+    <col min="8" max="8" width="20.08984375" customWidth="1"/>
+    <col min="9" max="9" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.8" thickBot="1"/>
-    <row r="2" spans="1:9" ht="16.2" thickBot="1">
+    <row r="1" spans="1:9" ht="13" thickBot="1"/>
+    <row r="2" spans="1:9" ht="16" thickBot="1">
       <c r="A2" s="129" t="s">
         <v>222</v>
       </c>
@@ -3536,8 +3539,8 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4" thickTop="1" thickBot="1"/>
-    <row r="4" spans="1:9" ht="13.8">
+    <row r="3" spans="1:9" ht="13.5" thickTop="1" thickBot="1"/>
+    <row r="4" spans="1:9" ht="14">
       <c r="A4" s="41" t="s">
         <v>1</v>
       </c>
@@ -3563,7 +3566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.6">
+    <row r="5" spans="1:9" ht="15.5">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -3592,7 +3595,7 @@
         <v>BONUS</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.6">
+    <row r="6" spans="1:9" ht="15.5">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -3621,7 +3624,7 @@
         <v>NO BONUS</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.6">
+    <row r="7" spans="1:9" ht="15.5">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -3650,7 +3653,7 @@
         <v>NO BONUS</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.6">
+    <row r="8" spans="1:9" ht="15.5">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -3679,7 +3682,7 @@
         <v>BONUS</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.2" thickBot="1">
+    <row r="9" spans="1:9" ht="16" thickBot="1">
       <c r="A9" s="16" t="s">
         <v>14</v>
       </c>
@@ -3708,7 +3711,7 @@
         <v>NO BONUS</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13.8">
+    <row r="10" spans="1:9" ht="14">
       <c r="A10" s="48" t="s">
         <v>223</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>176211</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="50" customFormat="1" ht="13.8">
+    <row r="11" spans="1:9" s="50" customFormat="1" ht="14">
       <c r="A11" s="49"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1">
@@ -3780,15 +3783,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.8" thickBot="1"/>
-    <row r="2" spans="1:4">
+    <row r="1" spans="1:4" ht="13" thickBot="1"/>
+    <row r="2" spans="1:4" ht="13">
       <c r="A2" s="98" t="s">
         <v>254</v>
       </c>
@@ -3800,7 +3803,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.8" thickBot="1">
+    <row r="3" spans="1:4" ht="13.5" thickBot="1">
       <c r="A3" s="98" t="s">
         <v>252</v>
       </c>
@@ -3810,7 +3813,7 @@
       <c r="C3" s="75"/>
       <c r="D3" s="96"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="13">
       <c r="A4" s="98" t="s">
         <v>251</v>
       </c>
@@ -3834,17 +3837,17 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" style="79" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="79" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="79" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="79" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="79" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="79" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="79" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="79" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="79"/>
+    <col min="1" max="1" width="25.453125" style="79" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" style="79" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" style="79" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" style="79" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" style="79" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="79" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" style="79" customWidth="1"/>
+    <col min="8" max="8" width="15.6328125" style="79" customWidth="1"/>
+    <col min="9" max="16384" width="9.08984375" style="79"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="10.5" customHeight="1">
@@ -3865,7 +3868,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.2" thickBot="1">
+    <row r="4" spans="1:8" ht="16" thickBot="1">
       <c r="A4" s="90" t="s">
         <v>278</v>
       </c>
@@ -3889,7 +3892,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" spans="1:8" ht="15.5">
       <c r="A5" s="88" t="s">
         <v>271</v>
       </c>
@@ -3914,7 +3917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" spans="1:8" ht="15.5">
       <c r="A6" s="88" t="s">
         <v>270</v>
       </c>
@@ -3939,7 +3942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.6">
+    <row r="7" spans="1:8" ht="15.5">
       <c r="A7" s="88" t="s">
         <v>269</v>
       </c>
@@ -3964,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.6">
+    <row r="8" spans="1:8" ht="15.5">
       <c r="A8" s="99" t="s">
         <v>268</v>
       </c>
@@ -3999,7 +4002,7 @@
       <c r="E9" s="81"/>
       <c r="F9" s="75"/>
     </row>
-    <row r="10" spans="1:8" ht="15.6">
+    <row r="10" spans="1:8" ht="15.5">
       <c r="A10" s="100" t="s">
         <v>267</v>
       </c>
@@ -4017,7 +4020,7 @@
       </c>
       <c r="F10" s="75"/>
     </row>
-    <row r="11" spans="1:8" ht="15.6">
+    <row r="11" spans="1:8" ht="15.5">
       <c r="A11" s="80"/>
       <c r="F11" s="75"/>
     </row>
@@ -4042,15 +4045,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="75"/>
-    <col min="2" max="2" width="17.44140625" style="75" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.44140625" style="75" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="75"/>
+    <col min="1" max="1" width="9.08984375" style="75"/>
+    <col min="2" max="2" width="17.453125" style="75" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.453125" style="75" customWidth="1"/>
+    <col min="7" max="16384" width="9.08984375" style="75"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" ht="13">
       <c r="B2" s="98" t="s">
         <v>254</v>
       </c>
@@ -4058,7 +4061,7 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" ht="13">
       <c r="B3" s="98" t="s">
         <v>252</v>
       </c>
@@ -4066,7 +4069,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" ht="13">
       <c r="B4" s="98" t="s">
         <v>251</v>
       </c>
@@ -4078,7 +4081,7 @@
     <row r="6" spans="2:3">
       <c r="C6" s="77"/>
     </row>
-    <row r="7" spans="2:3" ht="15.6">
+    <row r="7" spans="2:3" ht="15.5">
       <c r="B7" s="112" t="s">
         <v>250</v>
       </c>
@@ -4087,43 +4090,43 @@
         <v>1697.9956826206067</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="15.6">
+    <row r="8" spans="2:3" ht="15.5">
       <c r="B8" s="76">
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="2:3" ht="15.6">
+    <row r="9" spans="2:3" ht="15.5">
       <c r="B9" s="76">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="2:3" ht="15.6">
+    <row r="10" spans="2:3" ht="15.5">
       <c r="B10" s="76">
         <v>7.7499999999999999E-2</v>
       </c>
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="2:3" ht="15.6">
+    <row r="11" spans="2:3" ht="15.5">
       <c r="B11" s="76">
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="C11" s="12"/>
     </row>
-    <row r="12" spans="2:3" ht="15.6">
+    <row r="12" spans="2:3" ht="15.5">
       <c r="B12" s="76">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="C12" s="12"/>
     </row>
-    <row r="13" spans="2:3" ht="15.6">
+    <row r="13" spans="2:3" ht="15.5">
       <c r="B13" s="76">
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="2:3" ht="15.6">
+    <row r="14" spans="2:3" ht="15.5">
       <c r="B14" s="76">
         <v>0.09</v>
       </c>
@@ -4149,16 +4152,16 @@
       <selection activeCell="C11" sqref="C11:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="75"/>
-    <col min="2" max="2" width="11.5546875" style="75" customWidth="1"/>
-    <col min="3" max="6" width="14.88671875" style="75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="75" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="75"/>
+    <col min="1" max="1" width="9.08984375" style="75"/>
+    <col min="2" max="2" width="11.54296875" style="75" customWidth="1"/>
+    <col min="3" max="6" width="14.90625" style="75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" style="75" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.08984375" style="75"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.6">
+    <row r="2" spans="2:7" ht="15.5">
       <c r="B2" s="112" t="s">
         <v>266</v>
       </c>
@@ -4178,7 +4181,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" ht="13">
       <c r="B3" s="113" t="s">
         <v>258</v>
       </c>
@@ -4202,7 +4205,7 @@
         <v>358431.46368858824</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" ht="13">
       <c r="B4" s="113" t="s">
         <v>257</v>
       </c>
@@ -4226,7 +4229,7 @@
         <v>314199.50175383873</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" ht="13">
       <c r="B5" s="113" t="s">
         <v>256</v>
       </c>
@@ -4250,7 +4253,7 @@
         <v>386317.03597964835</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" ht="13">
       <c r="B6" s="113" t="s">
         <v>255</v>
       </c>
@@ -4274,7 +4277,7 @@
         <v>267970.20047823974</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15.6">
+    <row r="7" spans="2:7" ht="15.5">
       <c r="B7" s="101" t="s">
         <v>260</v>
       </c>
@@ -4299,13 +4302,13 @@
         <v>1326918.201900315</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" ht="13">
       <c r="B10" s="135" t="s">
         <v>259</v>
       </c>
       <c r="C10" s="135"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" ht="13">
       <c r="B11" s="115" t="s">
         <v>258</v>
       </c>
@@ -4313,7 +4316,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" ht="13">
       <c r="B12" s="115" t="s">
         <v>257</v>
       </c>
@@ -4321,7 +4324,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" ht="13">
       <c r="B13" s="115" t="s">
         <v>256</v>
       </c>
@@ -4329,7 +4332,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" ht="13">
       <c r="B14" s="115" t="s">
         <v>255</v>
       </c>
@@ -4358,13 +4361,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" style="119" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="117"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" style="119" customWidth="1"/>
+    <col min="9" max="9" width="9.08984375" style="117"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4976,7 +4979,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="26.4">
+    <row r="22" spans="1:9">
       <c r="A22" s="7">
         <v>1673</v>
       </c>
@@ -5454,20 +5457,20 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="18" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="18"/>
-    <col min="7" max="7" width="13.6640625" style="18" customWidth="1"/>
-    <col min="8" max="9" width="12.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="18"/>
+    <col min="4" max="4" width="12.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="18"/>
+    <col min="7" max="7" width="13.6328125" style="18" customWidth="1"/>
+    <col min="8" max="9" width="12.6328125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.08984375" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15.6">
+    <row r="2" spans="1:9" ht="15.5">
       <c r="A2" s="29" t="s">
         <v>143</v>
       </c>
@@ -5493,7 +5496,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.6">
+    <row r="3" spans="1:9" ht="15.5">
       <c r="A3" s="19" t="s">
         <v>145</v>
       </c>
@@ -5522,7 +5525,7 @@
         <v>491064</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="13">
       <c r="A4" s="19" t="s">
         <v>145</v>
       </c>
@@ -5549,7 +5552,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.6">
+    <row r="5" spans="1:9" ht="15.5">
       <c r="A5" s="19" t="s">
         <v>145</v>
       </c>
@@ -10399,13 +10402,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="119" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="117"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" style="119" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.08984375" style="117"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -11017,7 +11020,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="26.4">
+    <row r="22" spans="1:9">
       <c r="A22" s="7">
         <v>1673</v>
       </c>
@@ -11491,21 +11494,21 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="B1:G18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="3.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="6" width="13.90625" customWidth="1"/>
+    <col min="7" max="7" width="3.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="13.8" thickBot="1"/>
+    <row r="1" spans="2:7" ht="13" thickBot="1"/>
     <row r="2" spans="2:7" ht="21.75" customHeight="1">
       <c r="B2" s="33" t="s">
         <v>16</v>
@@ -11529,12 +11532,21 @@
         <v>1054</v>
       </c>
       <c r="C3" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B3,'Master Emp List'!$A$1:$I$38,3,FALSE), "EMP ID NOT FOUND")</f>
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B3,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
         <v>Howard</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="D3" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B3,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>Smith</v>
+      </c>
+      <c r="E3" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B3,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>AT</v>
+      </c>
+      <c r="F3" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B3,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>11.25</v>
+      </c>
       <c r="G3" s="68"/>
     </row>
     <row r="4" spans="2:7">
@@ -11542,12 +11554,21 @@
         <v>1056</v>
       </c>
       <c r="C4" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B4,'Master Emp List'!$A$1:$I$38,3,FALSE), "EMP ID NOT FOUND")</f>
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B4,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
         <v>Joe</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="D4" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B4,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>Gonzales</v>
+      </c>
+      <c r="E4" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B4,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>AT</v>
+      </c>
+      <c r="F4" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B4,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>12.25</v>
+      </c>
       <c r="G4" s="68"/>
     </row>
     <row r="5" spans="2:7">
@@ -11555,12 +11576,21 @@
         <v>1067</v>
       </c>
       <c r="C5" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B5,'Master Emp List'!$A$1:$I$38,3,FALSE), "EMP ID NOT FOUND")</f>
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B5,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
         <v>Gail</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="D5" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B5,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>Scote</v>
+      </c>
+      <c r="E5" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B5,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>AT</v>
+      </c>
+      <c r="F5" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B5,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>14.55</v>
+      </c>
       <c r="G5" s="68"/>
     </row>
     <row r="6" spans="2:7">
@@ -11568,12 +11598,21 @@
         <v>1075</v>
       </c>
       <c r="C6" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B6,'Master Emp List'!$A$1:$I$38,3,FALSE), "EMP ID NOT FOUND")</f>
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B6,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
         <v>Sheryl</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="D6" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B6,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>Kane</v>
+      </c>
+      <c r="E6" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B6,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>AD</v>
+      </c>
+      <c r="F6" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B6,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>11.25</v>
+      </c>
       <c r="G6" s="68"/>
     </row>
     <row r="7" spans="2:7">
@@ -11581,12 +11620,21 @@
         <v>1078</v>
       </c>
       <c r="C7" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B7,'Master Emp List'!$A$1:$I$38,3,FALSE), "EMP ID NOT FOUND")</f>
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B7,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
         <v>Kendrick</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="D7" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B7,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>Hapsbuch</v>
+      </c>
+      <c r="E7" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B7,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>AC</v>
+      </c>
+      <c r="F7" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B7,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>10.199999999999999</v>
+      </c>
       <c r="G7" s="68"/>
     </row>
     <row r="8" spans="2:7">
@@ -11594,12 +11642,21 @@
         <v>1152</v>
       </c>
       <c r="C8" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B8,'Master Emp List'!$A$1:$I$38,3,FALSE), "EMP ID NOT FOUND")</f>
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B8,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
         <v>Mark</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="D8" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B8,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>Henders</v>
+      </c>
+      <c r="E8" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B8,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>AD</v>
+      </c>
+      <c r="F8" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B8,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>12.25</v>
+      </c>
       <c r="G8" s="68"/>
     </row>
     <row r="9" spans="2:7">
@@ -11607,12 +11664,21 @@
         <v>1196</v>
       </c>
       <c r="C9" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B9,'Master Emp List'!$A$1:$I$38,3,FALSE), "EMP ID NOT FOUND")</f>
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B9,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
         <v>Katie</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="D9" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B9,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>Atherton</v>
+      </c>
+      <c r="E9" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B9,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>HR</v>
+      </c>
+      <c r="F9" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B9,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>9.9499999999999993</v>
+      </c>
       <c r="G9" s="68"/>
     </row>
     <row r="10" spans="2:7">
@@ -11620,47 +11686,83 @@
         <v>1284</v>
       </c>
       <c r="C10" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B10,'Master Emp List'!$A$1:$I$38,3,FALSE), "EMP ID NOT FOUND")</f>
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B10,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
         <v>Frank</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="D10" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B10,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>Bellwood</v>
+      </c>
+      <c r="E10" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B10,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>MK</v>
+      </c>
+      <c r="F10" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B10,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>12.3</v>
+      </c>
       <c r="G10" s="68"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="10">
         <v>0</v>
       </c>
-      <c r="C11" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B11,'Master Emp List'!$A$1:$I$38,3,FALSE), "EMP ID NOT FOUND")</f>
-        <v>EMP ID NOT FOUND</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="C11" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B11,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B11,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B11,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F11" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B11,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
       <c r="G11" s="68"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="10"/>
-      <c r="C12" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B12,'Master Emp List'!$A$1:$I$38,3,FALSE), "EMP ID NOT FOUND")</f>
-        <v>EMP ID NOT FOUND</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="C12" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B12,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D12" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B12,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E12" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B12,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F12" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B12,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
       <c r="G12" s="68"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="10"/>
-      <c r="C13" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B13,'Master Emp List'!$A$1:$I$38,3,FALSE), "EMP ID NOT FOUND")</f>
-        <v>EMP ID NOT FOUND</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="C13" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B13,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B13,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B13,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F13" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B13,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
       <c r="G13" s="68"/>
     </row>
     <row r="14" spans="2:7">
@@ -11668,12 +11770,21 @@
         <v>1302</v>
       </c>
       <c r="C14" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B14,'Master Emp List'!$A$1:$I$38,3,FALSE), "EMP ID NOT FOUND")</f>
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B14,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
         <v>Randy</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="D14" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B14,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>Sindole</v>
+      </c>
+      <c r="E14" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B14,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>MK</v>
+      </c>
+      <c r="F14" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B14,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>14.25</v>
+      </c>
       <c r="G14" s="68"/>
     </row>
     <row r="15" spans="2:7">
@@ -11681,12 +11792,21 @@
         <v>1310</v>
       </c>
       <c r="C15" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B15,'Master Emp List'!$A$1:$I$38,3,FALSE), "EMP ID NOT FOUND")</f>
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B15,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
         <v>Ellen</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="D15" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B15,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>Smith</v>
+      </c>
+      <c r="E15" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B15,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>MF</v>
+      </c>
+      <c r="F15" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B15,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>11.5</v>
+      </c>
       <c r="G15" s="68"/>
     </row>
     <row r="16" spans="2:7">
@@ -11694,12 +11814,21 @@
         <v>1329</v>
       </c>
       <c r="C16" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B16,'Master Emp List'!$A$1:$I$38,3,FALSE), "EMP ID NOT FOUND")</f>
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B16,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
         <v>Tuome</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="D16" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B16,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>Vuanuo</v>
+      </c>
+      <c r="E16" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B16,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>AC</v>
+      </c>
+      <c r="F16" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B16,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>10.35</v>
+      </c>
       <c r="G16" s="68"/>
     </row>
     <row r="17" spans="2:7">
@@ -11707,25 +11836,43 @@
         <v>1333</v>
       </c>
       <c r="C17" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B17,'Master Emp List'!$A$1:$I$38,3,FALSE), "EMP ID NOT FOUND")</f>
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B17,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
         <v>Tadeuz</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="D17" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B17,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>Szcznyck</v>
+      </c>
+      <c r="E17" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B17,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>HR</v>
+      </c>
+      <c r="F17" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B17,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>10.15</v>
+      </c>
       <c r="G17" s="68"/>
     </row>
-    <row r="18" spans="2:7" ht="13.8" thickBot="1">
+    <row r="18" spans="2:7" ht="13" thickBot="1">
       <c r="B18" s="13">
         <v>1368</v>
       </c>
       <c r="C18" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B18,'Master Emp List'!$A$1:$I$38,3,FALSE), "EMP ID NOT FOUND")</f>
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B18,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
         <v>Tammy</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="D18" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B18,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>Wu</v>
+      </c>
+      <c r="E18" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B18,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>AD</v>
+      </c>
+      <c r="F18" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B18,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>12.25</v>
+      </c>
       <c r="G18" s="68"/>
     </row>
   </sheetData>
@@ -11745,8 +11892,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="14.109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="1" max="8" width="14.08984375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" customHeight="1">
@@ -12863,30 +13010,30 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="30.109375" style="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="56" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" style="56" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" style="56" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="56" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="56" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="56" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="56"/>
+    <col min="1" max="1" width="30.08984375" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" style="56" customWidth="1"/>
+    <col min="3" max="3" width="16.90625" style="56" customWidth="1"/>
+    <col min="4" max="4" width="8.08984375" style="56" customWidth="1"/>
+    <col min="5" max="5" width="7.36328125" style="56" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" style="56" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="56" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.08984375" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.8" thickBot="1"/>
+    <row r="1" spans="1:2" ht="13" thickBot="1"/>
     <row r="2" spans="1:2" ht="22.5" customHeight="1" thickBot="1">
       <c r="A2" s="130" t="s">
         <v>231</v>
       </c>
       <c r="B2" s="131"/>
     </row>
-    <row r="3" spans="1:2" ht="16.8" thickTop="1" thickBot="1">
+    <row r="3" spans="1:2" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="62" t="s">
         <v>230</v>
       </c>
@@ -12898,7 +13045,7 @@
       <c r="A4" s="60"/>
       <c r="B4" s="59"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="13">
       <c r="A5" s="63" t="s">
         <v>229</v>
       </c>
@@ -12907,17 +13054,23 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="13">
       <c r="A6" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="B6" s="58"/>
-    </row>
-    <row r="7" spans="1:2" ht="13.8" thickBot="1">
+      <c r="B6" s="58">
+        <f>HLOOKUP($B$3,'Master Inventory List'!$A$2:$G$5,3,FALSE)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="13.5" thickBot="1">
       <c r="A7" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="58">
+        <f>HLOOKUP($B$3,'Master Inventory List'!$A$2:$G$5,4,FALSE)</f>
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12937,13 +13090,13 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="56" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="56"/>
+    <col min="1" max="1" width="14.90625" style="56" customWidth="1"/>
+    <col min="2" max="16384" width="9.08984375" style="56"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="13">
       <c r="A2" s="65" t="s">
         <v>238</v>
       </c>
@@ -12966,7 +13119,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="13">
       <c r="A3" s="67" t="s">
         <v>234</v>
       </c>
@@ -12989,7 +13142,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="13">
       <c r="A4" s="67" t="s">
         <v>233</v>
       </c>
@@ -13012,7 +13165,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="13">
       <c r="A5" s="67" t="s">
         <v>232</v>
       </c>
@@ -13049,14 +13202,14 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.08984375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.08984375" customWidth="1"/>
+    <col min="6" max="6" width="18.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="41.25" customHeight="1" thickBot="1">
@@ -13067,7 +13220,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="13.8">
+    <row r="3" spans="2:6" ht="14">
       <c r="B3" s="120" t="s">
         <v>283</v>
       </c>
@@ -13195,8 +13348,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="14.109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="1" max="8" width="14.08984375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" customHeight="1">
@@ -14318,19 +14471,19 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="3.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="3.08984375" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="13">
       <c r="A2" s="35" t="s">
         <v>168</v>
       </c>
@@ -14354,7 +14507,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="13">
       <c r="A3" s="22" t="s">
         <v>169</v>
       </c>
@@ -14378,7 +14531,7 @@
         <v>WW</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="13">
       <c r="A4" s="22" t="s">
         <v>170</v>
       </c>
@@ -14393,7 +14546,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="13">
       <c r="A5" s="22" t="s">
         <v>171</v>
       </c>
@@ -14408,7 +14561,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="13">
       <c r="A6" s="22" t="s">
         <v>172</v>
       </c>
@@ -14423,7 +14576,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="13">
       <c r="A7" s="22" t="s">
         <v>173</v>
       </c>
@@ -14438,7 +14591,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="13">
       <c r="A8" s="22" t="s">
         <v>174</v>
       </c>
@@ -14453,7 +14606,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="13">
       <c r="A9" s="22" t="s">
         <v>175</v>
       </c>
@@ -14468,7 +14621,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="13">
       <c r="A10" s="22" t="s">
         <v>176</v>
       </c>
@@ -14483,7 +14636,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="13">
       <c r="A11" s="22" t="s">
         <v>177</v>
       </c>
@@ -14498,7 +14651,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="13">
       <c r="A12" s="22" t="s">
         <v>204</v>
       </c>
@@ -14513,7 +14666,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="13">
       <c r="A13" s="22" t="s">
         <v>205</v>
       </c>
@@ -14528,7 +14681,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="13">
       <c r="A14" s="22" t="s">
         <v>206</v>
       </c>
@@ -14543,7 +14696,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="13">
       <c r="A15" s="22" t="s">
         <v>207</v>
       </c>
@@ -14558,7 +14711,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="13">
       <c r="A16" s="22" t="s">
         <v>208</v>
       </c>
@@ -14573,7 +14726,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="13">
       <c r="A17" s="22" t="s">
         <v>209</v>
       </c>
@@ -14588,7 +14741,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="13">
       <c r="A18" s="22" t="s">
         <v>210</v>
       </c>
@@ -14603,7 +14756,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="13">
       <c r="A19" s="22" t="s">
         <v>178</v>
       </c>
@@ -14618,7 +14771,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="13">
       <c r="A20" s="22" t="s">
         <v>211</v>
       </c>
@@ -14633,7 +14786,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="13">
       <c r="A21" s="22" t="s">
         <v>212</v>
       </c>
@@ -14648,7 +14801,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="13">
       <c r="A22" s="22" t="s">
         <v>217</v>
       </c>
@@ -14663,7 +14816,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="13">
       <c r="A23" s="22" t="s">
         <v>218</v>
       </c>
@@ -14678,7 +14831,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="13">
       <c r="A24" s="22" t="s">
         <v>214</v>
       </c>
@@ -14693,7 +14846,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="13">
       <c r="A25" s="22" t="s">
         <v>215</v>
       </c>
@@ -14708,7 +14861,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="13">
       <c r="A26" s="22" t="s">
         <v>216</v>
       </c>

--- a/Excel103-AdvancedExercises.xlsx
+++ b/Excel103-AdvancedExercises.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDBA9A3-1573-4BBA-9286-E0232086D958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6E4A5A-5109-4537-854C-EBE4108EDF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IF Function" sheetId="4" r:id="rId1"/>
@@ -38,17 +38,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'INDEX MATCH Master Emp List'!$A$1:$I$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Master Emp List'!$B$1:$I$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SUMIF Function'!$A$2:$E$272</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'Test Macro'!$A$1:$I$38</definedName>
     <definedName name="Goal">'IF Function'!$I$2</definedName>
+    <definedName name="solver_adj" localSheetId="15" hidden="1">Solver!$B$5:$E$7</definedName>
     <definedName name="solver_cvg" localSheetId="15" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="15" hidden="1">100</definedName>
-    <definedName name="solver_lhs1" localSheetId="15" hidden="1">Solver!$B$8:$E$8</definedName>
-    <definedName name="solver_lhs2" localSheetId="15" hidden="1">Solver!$B$8:$E$8</definedName>
-    <definedName name="solver_lhs3" localSheetId="15" hidden="1">Solver!$B$8:$E$8</definedName>
-    <definedName name="solver_lhs4" localSheetId="15" hidden="1">Solver!$B$8:$E$8</definedName>
+    <definedName name="solver_lhs1" localSheetId="15" hidden="1">Solver!$B$5:$E$5</definedName>
+    <definedName name="solver_lhs2" localSheetId="15" hidden="1">Solver!$B$5:$E$7</definedName>
+    <definedName name="solver_lhs3" localSheetId="15" hidden="1">Solver!$B$6:$E$6</definedName>
+    <definedName name="solver_lhs4" localSheetId="15" hidden="1">Solver!$B$7:$E$7</definedName>
     <definedName name="solver_lhs5" localSheetId="15" hidden="1">Solver!$B$8:$E$8</definedName>
     <definedName name="solver_lhs6" localSheetId="15" hidden="1">Solver!$E$8</definedName>
     <definedName name="solver_lhs7" localSheetId="15" hidden="1">Solver!$E$8</definedName>
@@ -62,24 +64,24 @@
     <definedName name="solver_neg" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="15" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="15" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="15" hidden="1">5</definedName>
     <definedName name="solver_nwt" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'IF Function'!$I$2</definedName>
     <definedName name="solver_opt" localSheetId="15" hidden="1">Solver!$H$8</definedName>
     <definedName name="solver_pre" localSheetId="15" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="15" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="15" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="15" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="15" hidden="1">2</definedName>
-    <definedName name="solver_rel4" localSheetId="15" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="15" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="15" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="15" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_rel6" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_rel7" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_rel8" localSheetId="15" hidden="1">2</definedName>
-    <definedName name="solver_rhs1" localSheetId="15" hidden="1">Solver!$B$10:$E$10</definedName>
-    <definedName name="solver_rhs2" localSheetId="15" hidden="1">Solver!$B$10:$E$10</definedName>
-    <definedName name="solver_rhs3" localSheetId="15" hidden="1">Solver!$B$10:$E$10</definedName>
-    <definedName name="solver_rhs4" localSheetId="15" hidden="1">Solver!$B$10:$E$10</definedName>
+    <definedName name="solver_rhs1" localSheetId="15" hidden="1">92</definedName>
+    <definedName name="solver_rhs2" localSheetId="15" hidden="1">20</definedName>
+    <definedName name="solver_rhs3" localSheetId="15" hidden="1">45</definedName>
+    <definedName name="solver_rhs4" localSheetId="15" hidden="1">55</definedName>
     <definedName name="solver_rhs5" localSheetId="15" hidden="1">Solver!$B$10:$E$10</definedName>
     <definedName name="solver_rhs6" localSheetId="15" hidden="1">Solver!$E$10</definedName>
     <definedName name="solver_rhs7" localSheetId="15" hidden="1">Solver!$E$10</definedName>
@@ -116,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="290">
   <si>
     <t>Monthly Goal:</t>
   </si>
@@ -968,13 +970,31 @@
   </si>
   <si>
     <t>EMP ID</t>
+  </si>
+  <si>
+    <t>LAST NAME</t>
+  </si>
+  <si>
+    <t>FIRST NAME</t>
+  </si>
+  <si>
+    <t>DEPT</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Pay Date</t>
+  </si>
+  <si>
+    <t>Emp Id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="10">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -983,8 +1003,10 @@
     <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="166" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00;\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1107,8 +1129,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1184,6 +1219,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1630,7 +1671,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1929,9 +1970,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1967,18 +2005,28 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="20" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="20" fillId="14" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="21" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="21" fillId="14" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma" xfId="8" builtinId="3"/>
@@ -2004,6 +2052,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2318,6 +2370,80 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>311150</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>31750</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>63500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20481" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s20481"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000001500000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:rPr>
+                <a:t>Format Table</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -2691,14 +2817,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13" thickBot="1"/>
     <row r="2" spans="1:9" ht="16" thickBot="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="128" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
       <c r="H2" s="28" t="s">
         <v>0</v>
       </c>
@@ -2898,13 +3024,13 @@
       <c r="A11" s="49"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A12" s="126" t="s">
+      <c r="A12" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="128"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="127"/>
       <c r="F12" s="3">
         <f>COUNTIF(H5:H9, "YES")</f>
         <v>3</v>
@@ -2927,7 +3053,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2953,25 +3079,65 @@
       <c r="A2" t="s">
         <v>243</v>
       </c>
+      <c r="B2" t="str">
+        <f>LEFT(A2,SEARCH(" ",A2) - 1)</f>
+        <v>Patrick</v>
+      </c>
+      <c r="C2" t="str">
+        <f>RIGHT(A2,LEN(A2) - SEARCH(" ",A2))</f>
+        <v>Marleau</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>244</v>
       </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B6" si="0">LEFT(A3,SEARCH(" ",A3) - 1)</f>
+        <v>Joe</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C6" si="1">RIGHT(A3,LEN(A3) - SEARCH(" ",A3))</f>
+        <v>Thornton</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>245</v>
       </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>Brent</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>Burns</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>246</v>
       </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>Joe</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>Pavelski</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>247</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>Martin</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>Jones</v>
       </c>
     </row>
   </sheetData>
@@ -2985,8 +3151,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B2:F18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F4"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -3004,10 +3170,10 @@
       <c r="C2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="134" t="s">
+      <c r="E2" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="134"/>
+      <c r="F2" s="131"/>
     </row>
     <row r="3" spans="2:6" ht="13">
       <c r="B3" s="25" t="s">
@@ -3029,7 +3195,10 @@
       <c r="C4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="132"/>
+      <c r="E4" s="132" t="str">
+        <f>CONCATENATE(C4," ",B4)</f>
+        <v>Joe Gonzales</v>
+      </c>
       <c r="F4" s="133"/>
     </row>
     <row r="5" spans="2:6" ht="13">
@@ -3039,7 +3208,10 @@
       <c r="C5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="132"/>
+      <c r="E5" s="132" t="str">
+        <f t="shared" ref="E5:E18" si="0">CONCATENATE(C5," ",B5)</f>
+        <v>Gail Scote</v>
+      </c>
       <c r="F5" s="133"/>
     </row>
     <row r="6" spans="2:6" ht="13">
@@ -3049,7 +3221,10 @@
       <c r="C6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="132"/>
+      <c r="E6" s="132" t="str">
+        <f t="shared" si="0"/>
+        <v>Sheryl Kane</v>
+      </c>
       <c r="F6" s="133"/>
     </row>
     <row r="7" spans="2:6" ht="13">
@@ -3059,7 +3234,10 @@
       <c r="C7" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="132"/>
+      <c r="E7" s="132" t="str">
+        <f t="shared" si="0"/>
+        <v>Kendrick Hapsbuch</v>
+      </c>
       <c r="F7" s="133"/>
     </row>
     <row r="8" spans="2:6" ht="13">
@@ -3069,7 +3247,10 @@
       <c r="C8" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="132"/>
+      <c r="E8" s="132" t="str">
+        <f t="shared" si="0"/>
+        <v>Mark Henders</v>
+      </c>
       <c r="F8" s="133"/>
     </row>
     <row r="9" spans="2:6" ht="13">
@@ -3079,7 +3260,10 @@
       <c r="C9" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="132"/>
+      <c r="E9" s="132" t="str">
+        <f t="shared" si="0"/>
+        <v>Katie Atherton</v>
+      </c>
       <c r="F9" s="133"/>
     </row>
     <row r="10" spans="2:6" ht="13">
@@ -3089,7 +3273,10 @@
       <c r="C10" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="132"/>
+      <c r="E10" s="132" t="str">
+        <f t="shared" si="0"/>
+        <v>Frank Bellwood</v>
+      </c>
       <c r="F10" s="133"/>
     </row>
     <row r="11" spans="2:6" ht="13">
@@ -3099,7 +3286,10 @@
       <c r="C11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="132"/>
+      <c r="E11" s="132" t="str">
+        <f t="shared" si="0"/>
+        <v>Linda Cooper</v>
+      </c>
       <c r="F11" s="133"/>
     </row>
     <row r="12" spans="2:6" ht="13">
@@ -3109,7 +3299,10 @@
       <c r="C12" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="132"/>
+      <c r="E12" s="132" t="str">
+        <f t="shared" si="0"/>
+        <v>Brent Cronwith</v>
+      </c>
       <c r="F12" s="133"/>
     </row>
     <row r="13" spans="2:6" ht="13">
@@ -3119,7 +3312,10 @@
       <c r="C13" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="132"/>
+      <c r="E13" s="132" t="str">
+        <f t="shared" si="0"/>
+        <v>Sandrae Simpson</v>
+      </c>
       <c r="F13" s="133"/>
     </row>
     <row r="14" spans="2:6" ht="13">
@@ -3129,7 +3325,10 @@
       <c r="C14" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="132"/>
+      <c r="E14" s="132" t="str">
+        <f t="shared" si="0"/>
+        <v>Randy Sindole</v>
+      </c>
       <c r="F14" s="133"/>
     </row>
     <row r="15" spans="2:6" ht="13">
@@ -3139,7 +3338,10 @@
       <c r="C15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="132"/>
+      <c r="E15" s="132" t="str">
+        <f t="shared" si="0"/>
+        <v>Ellen Smith</v>
+      </c>
       <c r="F15" s="133"/>
     </row>
     <row r="16" spans="2:6" ht="13">
@@ -3149,7 +3351,10 @@
       <c r="C16" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="132"/>
+      <c r="E16" s="132" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuome Vuanuo</v>
+      </c>
       <c r="F16" s="133"/>
     </row>
     <row r="17" spans="2:6" ht="13">
@@ -3159,7 +3364,10 @@
       <c r="C17" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="132"/>
+      <c r="E17" s="132" t="str">
+        <f t="shared" si="0"/>
+        <v>Tadeuz Szcznyck</v>
+      </c>
       <c r="F17" s="133"/>
     </row>
     <row r="18" spans="2:6" ht="13">
@@ -3169,11 +3377,21 @@
       <c r="C18" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="132"/>
+      <c r="E18" s="132" t="str">
+        <f t="shared" si="0"/>
+        <v>Tammy Wu</v>
+      </c>
       <c r="F18" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
@@ -3184,13 +3402,6 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3204,7 +3415,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -3214,7 +3425,7 @@
     <col min="3" max="3" width="11.54296875" customWidth="1"/>
     <col min="4" max="4" width="11.90625" customWidth="1"/>
     <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="1.08984375" customWidth="1"/>
     <col min="8" max="8" width="20.08984375" customWidth="1"/>
     <col min="9" max="9" width="15.90625" customWidth="1"/>
@@ -3222,14 +3433,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13" thickBot="1"/>
     <row r="2" spans="1:9" ht="16" thickBot="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="128" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
       <c r="H2" s="28" t="s">
         <v>0</v>
       </c>
@@ -3268,16 +3479,16 @@
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="73">
         <v>9550</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="73">
         <v>9230</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="73">
         <v>8500</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="73">
         <v>8965</v>
       </c>
       <c r="F5" s="15">
@@ -3297,16 +3508,16 @@
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="73">
         <v>5975</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="73">
         <v>6900</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="73">
         <v>8500</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="73">
         <v>10100</v>
       </c>
       <c r="F6" s="15">
@@ -3326,16 +3537,16 @@
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="73">
         <v>7425</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="73">
         <v>8580</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="73">
         <v>9910</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="73">
         <v>7512</v>
       </c>
       <c r="F7" s="15">
@@ -3355,16 +3566,16 @@
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="73">
         <v>9560</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="73">
         <v>10150</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="73">
         <v>10200</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="73">
         <v>9795</v>
       </c>
       <c r="F8" s="15">
@@ -3384,16 +3595,16 @@
       <c r="A9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="74">
         <v>7892</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="74">
         <v>7695</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="74">
         <v>9520</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="74">
         <v>10252</v>
       </c>
       <c r="F9" s="52">
@@ -3448,13 +3659,13 @@
     </row>
     <row r="13" spans="1:9" ht="3" customHeight="1"/>
     <row r="14" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A14" s="126" t="s">
+      <c r="A14" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="128"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="127"/>
       <c r="F14" s="3">
         <f>COUNTIF(H5:H9, "YES")</f>
         <v>3</v>
@@ -3476,8 +3687,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -3497,6 +3708,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cellWatches>
+    <cellWatch r="B2"/>
+  </cellWatches>
 </worksheet>
 </file>
 
@@ -3524,14 +3738,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13" thickBot="1"/>
     <row r="2" spans="1:9" ht="16" thickBot="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="128" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
       <c r="H2" s="28" t="s">
         <v>0</v>
       </c>
@@ -3751,13 +3965,13 @@
     </row>
     <row r="13" spans="1:9" ht="3" customHeight="1"/>
     <row r="14" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A14" s="126" t="s">
+      <c r="A14" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="128"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="127"/>
       <c r="F14" s="3">
         <f>COUNTIF(H5:H9, "YES")</f>
         <v>3</v>
@@ -3811,7 +4025,10 @@
         <v>0.08</v>
       </c>
       <c r="C3" s="75"/>
-      <c r="D3" s="96"/>
+      <c r="D3" s="96">
+        <f>-PMT(B3/12,B4,B2)</f>
+        <v>1697.9956826206067</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="13">
       <c r="A4" s="98" t="s">
@@ -3897,16 +4114,16 @@
         <v>271</v>
       </c>
       <c r="B5" s="87">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C5" s="87">
-        <v>1</v>
+        <v>39.999999999999993</v>
       </c>
       <c r="D5" s="87">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="E5" s="87">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="F5" s="75"/>
       <c r="G5" s="86">
@@ -3914,7 +4131,7 @@
       </c>
       <c r="H5" s="85">
         <f>G5*(B5+C5+D5+E5)</f>
-        <v>5</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.5">
@@ -3922,16 +4139,16 @@
         <v>270</v>
       </c>
       <c r="B6" s="89">
-        <v>0</v>
+        <v>32.999999999999986</v>
       </c>
       <c r="C6" s="87">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D6" s="87">
-        <v>0</v>
+        <v>43.000000000000007</v>
       </c>
       <c r="E6" s="87">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F6" s="75"/>
       <c r="G6" s="86">
@@ -3939,7 +4156,7 @@
       </c>
       <c r="H6" s="85">
         <f>G6*(B6+C6+D6+E6)</f>
-        <v>0</v>
+        <v>213.44</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.5">
@@ -3947,16 +4164,16 @@
         <v>269</v>
       </c>
       <c r="B7" s="87">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C7" s="87">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D7" s="87">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E7" s="87">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F7" s="75"/>
       <c r="G7" s="86">
@@ -3964,7 +4181,7 @@
       </c>
       <c r="H7" s="85">
         <f>G7*(B7+C7+D7+E7)</f>
-        <v>0</v>
+        <v>258.09999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.5">
@@ -3973,25 +4190,25 @@
       </c>
       <c r="B8" s="84">
         <f>SUM(B5:B7)</f>
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="C8" s="84">
         <f>SUM(C5:C7)</f>
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D8" s="84">
         <f>SUM(D5:D7)</f>
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="E8" s="84">
         <f>SUM(E5:E7)</f>
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="F8" s="75"/>
       <c r="G8" s="83"/>
       <c r="H8" s="106">
         <f>H5+H6+H7</f>
-        <v>5</v>
+        <v>866.54</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="4.5" customHeight="1">
@@ -4042,7 +4259,7 @@
   <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
@@ -4094,43 +4311,58 @@
       <c r="B8" s="76">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="12">
+        <f t="dataTable" ref="C8:C14" dt2D="0" dtr="0" r1="C3"/>
+        <v>1590.1751010137643</v>
+      </c>
     </row>
     <row r="9" spans="2:3" ht="15.5">
       <c r="B9" s="76">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="12">
+        <v>1625.7805911544106</v>
+      </c>
     </row>
     <row r="10" spans="2:3" ht="15.5">
       <c r="B10" s="76">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="12">
+        <v>1661.7232770342728</v>
+      </c>
     </row>
     <row r="11" spans="2:3" ht="15.5">
       <c r="B11" s="76">
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="12">
+        <v>1734.5902963096128</v>
+      </c>
     </row>
     <row r="12" spans="2:3" ht="15.5">
       <c r="B12" s="76">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="12">
+        <v>1771.4995836166886</v>
+      </c>
     </row>
     <row r="13" spans="2:3" ht="15.5">
       <c r="B13" s="76">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="12">
+        <v>1808.7159994580018</v>
+      </c>
     </row>
     <row r="14" spans="2:3" ht="15.5">
       <c r="B14" s="76">
         <v>0.09</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="12">
+        <v>1846.2319999966555</v>
+      </c>
     </row>
   </sheetData>
   <printOptions gridLines="1" gridLinesSet="0"/>
@@ -4149,7 +4381,7 @@
   <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
@@ -4303,10 +4535,10 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="13">
-      <c r="B10" s="135" t="s">
+      <c r="B10" s="134" t="s">
         <v>259</v>
       </c>
-      <c r="C10" s="135"/>
+      <c r="C10" s="134"/>
     </row>
     <row r="11" spans="2:7" ht="13">
       <c r="B11" s="115" t="s">
@@ -4341,6 +4573,26 @@
       </c>
     </row>
   </sheetData>
+  <scenarios current="0" show="0">
+    <scenario name="Default Scenario" locked="1" count="4" user="Nipun Anoob" comment="Created by Nipun Anoob on 4/12/2022">
+      <inputCells r="C11" val="0.033" numFmtId="10"/>
+      <inputCells r="C12" val="0.023" numFmtId="10"/>
+      <inputCells r="C13" val="0.043" numFmtId="10"/>
+      <inputCells r="C14" val="0.011" numFmtId="10"/>
+    </scenario>
+    <scenario name="Best Case Scenario" locked="1" count="4" user="Nipun Anoob" comment="Created by Nipun Anoob on 4/12/2022">
+      <inputCells r="C11" val="0.05" numFmtId="10"/>
+      <inputCells r="C12" val="0.08" numFmtId="10"/>
+      <inputCells r="C13" val="0.065" numFmtId="10"/>
+      <inputCells r="C14" val="0.03" numFmtId="10"/>
+    </scenario>
+    <scenario name="Worst Case Scenario" locked="1" count="4" user="Nipun Anoob" comment="Created by Nipun Anoob on 4/12/2022">
+      <inputCells r="C11" val="0.01" numFmtId="10"/>
+      <inputCells r="C12" val="0.01" numFmtId="10"/>
+      <inputCells r="C13" val="0.01" numFmtId="10"/>
+      <inputCells r="C14" val="0.01" numFmtId="10"/>
+    </scenario>
+  </scenarios>
   <mergeCells count="1">
     <mergeCell ref="B10:C10"/>
   </mergeCells>
@@ -4357,1049 +4609,1052 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6328125" customWidth="1"/>
-    <col min="8" max="8" width="13.08984375" style="119" customWidth="1"/>
-    <col min="9" max="9" width="9.08984375" style="117"/>
+    <col min="8" max="8" width="13.08984375" style="118" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" style="117" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="7">
-        <v>1054</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="7">
-        <v>148</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="118">
-        <v>33344</v>
-      </c>
-      <c r="I1" s="117">
-        <v>11.25</v>
+    <row r="1" spans="1:9" ht="17.5">
+      <c r="A1" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="135" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="135" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="135" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1" s="135" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" s="135" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="135" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="136" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="137" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="7">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="118">
-        <v>29153</v>
-      </c>
-      <c r="I2" s="117">
-        <v>12.25</v>
+      <c r="H2" s="139">
+        <v>33344</v>
+      </c>
+      <c r="I2" s="138">
+        <v>11.25</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="7">
-        <v>1067</v>
+        <v>1056</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F3" s="7">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="118">
-        <v>32040</v>
-      </c>
-      <c r="I3" s="117">
-        <v>14.55</v>
+      <c r="H3" s="139">
+        <v>29153</v>
+      </c>
+      <c r="I3" s="138">
+        <v>12.25</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="7">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F4" s="7">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="118">
-        <v>33823</v>
-      </c>
-      <c r="I4" s="117">
-        <v>11.25</v>
+        <v>29</v>
+      </c>
+      <c r="H4" s="139">
+        <v>32040</v>
+      </c>
+      <c r="I4" s="138">
+        <v>14.55</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="7">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F5" s="7">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="118">
-        <v>31503</v>
-      </c>
-      <c r="I5" s="117">
-        <v>10.199999999999999</v>
+      <c r="H5" s="139">
+        <v>33823</v>
+      </c>
+      <c r="I5" s="138">
+        <v>11.25</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="7">
-        <v>1152</v>
+        <v>1078</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F6" s="7">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="118">
-        <v>32894</v>
-      </c>
-      <c r="I6" s="117">
-        <v>12.25</v>
+      <c r="H6" s="139">
+        <v>31503</v>
+      </c>
+      <c r="I6" s="138">
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="7">
-        <v>1196</v>
+        <v>1152</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F7" s="7">
-        <v>289</v>
+        <v>118</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="118">
-        <v>35886</v>
-      </c>
-      <c r="I7" s="117">
-        <v>9.9499999999999993</v>
+        <v>40</v>
+      </c>
+      <c r="H7" s="139">
+        <v>32894</v>
+      </c>
+      <c r="I7" s="138">
+        <v>12.25</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="7">
-        <v>1284</v>
+        <v>1196</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7">
-        <v>124</v>
+        <v>289</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="118">
-        <v>31051</v>
-      </c>
-      <c r="I8" s="117">
-        <v>12.3</v>
+        <v>24</v>
+      </c>
+      <c r="H8" s="139">
+        <v>35886</v>
+      </c>
+      <c r="I8" s="138">
+        <v>9.9499999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="7">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="118">
-        <v>31050</v>
-      </c>
-      <c r="I9" s="117">
-        <v>13.25</v>
+        <v>29</v>
+      </c>
+      <c r="H9" s="139">
+        <v>31051</v>
+      </c>
+      <c r="I9" s="138">
+        <v>12.3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="7">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="118">
-        <v>30939</v>
-      </c>
-      <c r="I10" s="117">
-        <v>10.199999999999999</v>
+        <v>40</v>
+      </c>
+      <c r="H10" s="139">
+        <v>31050</v>
+      </c>
+      <c r="I10" s="138">
+        <v>13.25</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="7">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F11" s="7">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="118">
-        <v>32863</v>
-      </c>
-      <c r="I11" s="117">
-        <v>12.2</v>
+        <v>24</v>
+      </c>
+      <c r="H11" s="139">
+        <v>30939</v>
+      </c>
+      <c r="I11" s="138">
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="7">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F12" s="7">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="118">
-        <v>30900</v>
-      </c>
-      <c r="I12" s="117">
-        <v>14.25</v>
+      <c r="H12" s="139">
+        <v>32863</v>
+      </c>
+      <c r="I12" s="138">
+        <v>12.2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="7">
-        <v>1310</v>
+        <v>1302</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="118">
-        <v>31689</v>
-      </c>
-      <c r="I13" s="117">
-        <v>11.5</v>
+      <c r="H13" s="139">
+        <v>30900</v>
+      </c>
+      <c r="I13" s="138">
+        <v>14.25</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="7">
-        <v>1329</v>
+        <v>1310</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="118">
-        <v>32561</v>
-      </c>
-      <c r="I14" s="117">
-        <v>10.35</v>
+        <v>29</v>
+      </c>
+      <c r="H14" s="139">
+        <v>31689</v>
+      </c>
+      <c r="I14" s="138">
+        <v>11.5</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="7">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F15" s="7">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="118">
-        <v>32979</v>
-      </c>
-      <c r="I15" s="117">
-        <v>10.15</v>
+        <v>40</v>
+      </c>
+      <c r="H15" s="139">
+        <v>32561</v>
+      </c>
+      <c r="I15" s="138">
+        <v>10.35</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="7">
-        <v>1368</v>
+        <v>1333</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="118">
-        <v>30386</v>
-      </c>
-      <c r="I16" s="117">
-        <v>12.25</v>
+        <v>24</v>
+      </c>
+      <c r="H16" s="139">
+        <v>32979</v>
+      </c>
+      <c r="I16" s="138">
+        <v>10.15</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="7">
-        <v>1509</v>
+        <v>1368</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="118">
-        <v>31217</v>
-      </c>
-      <c r="I17" s="117">
-        <v>13.25</v>
+        <v>40</v>
+      </c>
+      <c r="H17" s="139">
+        <v>30386</v>
+      </c>
+      <c r="I17" s="138">
+        <v>12.25</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="7">
-        <v>1516</v>
+        <v>1509</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F18" s="7">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="118">
-        <v>31112</v>
-      </c>
-      <c r="I18" s="117">
-        <v>9.5</v>
+        <v>29</v>
+      </c>
+      <c r="H18" s="139">
+        <v>31217</v>
+      </c>
+      <c r="I18" s="138">
+        <v>13.25</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="7">
-        <v>1529</v>
+        <v>1516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F19" s="7">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="118">
-        <v>31805</v>
-      </c>
-      <c r="I19" s="117">
-        <v>11.3</v>
+        <v>40</v>
+      </c>
+      <c r="H19" s="139">
+        <v>31112</v>
+      </c>
+      <c r="I19" s="138">
+        <v>9.5</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="7">
-        <v>1656</v>
+        <v>1529</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F20" s="7">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="118">
-        <v>32125</v>
-      </c>
-      <c r="I20" s="117">
-        <v>12.35</v>
+      <c r="H20" s="139">
+        <v>31805</v>
+      </c>
+      <c r="I20" s="138">
+        <v>11.3</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="7">
-        <v>1672</v>
+        <v>1656</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F21" s="7">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="118">
-        <v>32979</v>
-      </c>
-      <c r="I21" s="117">
-        <v>11.9</v>
+      <c r="H21" s="139">
+        <v>32125</v>
+      </c>
+      <c r="I21" s="138">
+        <v>12.35</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="7">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F22" s="7">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="118">
-        <v>33688</v>
-      </c>
-      <c r="I22" s="117">
-        <v>11.85</v>
+        <v>29</v>
+      </c>
+      <c r="H22" s="139">
+        <v>32979</v>
+      </c>
+      <c r="I22" s="138">
+        <v>11.9</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="7">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F23" s="7">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="118">
-        <v>29885</v>
-      </c>
-      <c r="I23" s="117">
-        <v>10.75</v>
+        <v>40</v>
+      </c>
+      <c r="H23" s="139">
+        <v>33688</v>
+      </c>
+      <c r="I23" s="138">
+        <v>11.85</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="7">
-        <v>1721</v>
+        <v>1676</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F24" s="7">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="118">
-        <v>33091</v>
-      </c>
-      <c r="I24" s="117">
-        <v>9.75</v>
+        <v>29</v>
+      </c>
+      <c r="H24" s="139">
+        <v>29885</v>
+      </c>
+      <c r="I24" s="138">
+        <v>10.75</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="7">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F25" s="7">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="118">
-        <v>28531</v>
-      </c>
-      <c r="I25" s="117">
-        <v>13.95</v>
+        <v>24</v>
+      </c>
+      <c r="H25" s="139">
+        <v>33091</v>
+      </c>
+      <c r="I25" s="138">
+        <v>9.75</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="7">
-        <v>1758</v>
+        <v>1723</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F26" s="7">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="118">
-        <v>30028</v>
-      </c>
-      <c r="I26" s="117">
-        <v>11.2</v>
+        <v>29</v>
+      </c>
+      <c r="H26" s="139">
+        <v>28531</v>
+      </c>
+      <c r="I26" s="138">
+        <v>13.95</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="7">
-        <v>1792</v>
+        <v>1758</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F27" s="7">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="118">
-        <v>33231</v>
-      </c>
-      <c r="I27" s="117">
-        <v>10.3</v>
+        <v>40</v>
+      </c>
+      <c r="H27" s="139">
+        <v>30028</v>
+      </c>
+      <c r="I27" s="138">
+        <v>11.2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7">
-        <v>1814</v>
+        <v>1792</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="7">
         <v>111</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" s="7">
-        <v>103</v>
-      </c>
       <c r="G28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="118">
-        <v>32571</v>
-      </c>
-      <c r="I28" s="117">
-        <v>12.25</v>
+        <v>29</v>
+      </c>
+      <c r="H28" s="139">
+        <v>33231</v>
+      </c>
+      <c r="I28" s="138">
+        <v>10.3</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7">
-        <v>1908</v>
+        <v>1814</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F29" s="7">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="118">
-        <v>30817</v>
-      </c>
-      <c r="I29" s="117">
-        <v>10.25</v>
+        <v>24</v>
+      </c>
+      <c r="H29" s="139">
+        <v>32571</v>
+      </c>
+      <c r="I29" s="138">
+        <v>12.25</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="7">
-        <v>1931</v>
+        <v>1908</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F30" s="7">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="118">
-        <v>32679</v>
-      </c>
-      <c r="I30" s="117">
-        <v>9.85</v>
+        <v>29</v>
+      </c>
+      <c r="H30" s="139">
+        <v>30817</v>
+      </c>
+      <c r="I30" s="138">
+        <v>10.25</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="7">
-        <v>1960</v>
+        <v>1931</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F31" s="7">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="118">
-        <v>31729</v>
-      </c>
-      <c r="I31" s="117">
-        <v>11.65</v>
+        <v>40</v>
+      </c>
+      <c r="H31" s="139">
+        <v>32679</v>
+      </c>
+      <c r="I31" s="138">
+        <v>9.85</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="7">
-        <v>1964</v>
+        <v>1960</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F32" s="7">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" s="118">
-        <v>33559</v>
-      </c>
-      <c r="I32" s="117">
-        <v>9.25</v>
+        <v>29</v>
+      </c>
+      <c r="H32" s="139">
+        <v>31729</v>
+      </c>
+      <c r="I32" s="138">
+        <v>11.65</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="7">
-        <v>1975</v>
+        <v>1964</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F33" s="7">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="118">
-        <v>35125</v>
-      </c>
-      <c r="I33" s="117">
+      <c r="H33" s="139">
+        <v>33559</v>
+      </c>
+      <c r="I33" s="138">
         <v>9.25</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="7">
-        <v>1983</v>
+        <v>1975</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F34" s="7">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" s="118">
-        <v>35609</v>
-      </c>
-      <c r="I34" s="117">
-        <v>11</v>
+        <v>40</v>
+      </c>
+      <c r="H34" s="139">
+        <v>35125</v>
+      </c>
+      <c r="I34" s="138">
+        <v>9.25</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="7">
-        <v>1990</v>
+        <v>1983</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F35" s="7">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="118">
-        <v>35840</v>
-      </c>
-      <c r="I35" s="117">
-        <v>10.95</v>
+      <c r="H35" s="139">
+        <v>35609</v>
+      </c>
+      <c r="I35" s="138">
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="7">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F36" s="7">
         <v>198</v>
@@ -5407,39 +5662,68 @@
       <c r="G36" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="118">
-        <v>35855</v>
-      </c>
-      <c r="I36" s="117">
-        <v>11.75</v>
+      <c r="H36" s="139">
+        <v>35840</v>
+      </c>
+      <c r="I36" s="138">
+        <v>10.95</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="7">
+        <v>1995</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="7">
+        <v>198</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="139">
+        <v>35855</v>
+      </c>
+      <c r="I37" s="138">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="7">
         <v>1999</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E38" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F38" s="7">
         <v>428</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="118">
+      <c r="H38" s="139">
         <v>35981</v>
       </c>
-      <c r="I37" s="117">
+      <c r="I38" s="138">
         <v>10.15</v>
       </c>
     </row>
@@ -10396,1051 +10680,1056 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" activeCellId="1" sqref="H2 J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" style="119" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.08984375" style="117"/>
+    <col min="1" max="1" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" style="118" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.81640625" style="117" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="7">
-        <v>1054</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="7">
-        <v>148</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="118">
-        <v>33344</v>
-      </c>
-      <c r="I1" s="117">
-        <v>11.25</v>
+    <row r="1" spans="1:9" ht="18">
+      <c r="A1" s="140" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="140" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="140" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="140" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" s="140" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="140" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="141" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="142" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="7">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="118">
-        <v>29153</v>
-      </c>
-      <c r="I2" s="117">
-        <v>12.25</v>
+      <c r="H2" s="139">
+        <v>33344</v>
+      </c>
+      <c r="I2" s="138">
+        <v>11.25</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="7">
-        <v>1067</v>
+        <v>1056</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F3" s="7">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="118">
-        <v>32040</v>
-      </c>
-      <c r="I3" s="117">
-        <v>14.55</v>
+      <c r="H3" s="139">
+        <v>29153</v>
+      </c>
+      <c r="I3" s="138">
+        <v>12.25</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="7">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F4" s="7">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="118">
-        <v>33823</v>
-      </c>
-      <c r="I4" s="117">
-        <v>11.25</v>
+        <v>29</v>
+      </c>
+      <c r="H4" s="139">
+        <v>32040</v>
+      </c>
+      <c r="I4" s="138">
+        <v>14.55</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="7">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F5" s="7">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="118">
-        <v>31503</v>
-      </c>
-      <c r="I5" s="117">
-        <v>10.199999999999999</v>
+      <c r="H5" s="139">
+        <v>33823</v>
+      </c>
+      <c r="I5" s="138">
+        <v>11.25</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="7">
-        <v>1152</v>
+        <v>1078</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F6" s="7">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="118">
-        <v>32894</v>
-      </c>
-      <c r="I6" s="117">
-        <v>12.25</v>
+      <c r="H6" s="139">
+        <v>31503</v>
+      </c>
+      <c r="I6" s="138">
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="7">
-        <v>1196</v>
+        <v>1152</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F7" s="7">
-        <v>289</v>
+        <v>118</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="118">
-        <v>35886</v>
-      </c>
-      <c r="I7" s="117">
-        <v>9.9499999999999993</v>
+        <v>40</v>
+      </c>
+      <c r="H7" s="139">
+        <v>32894</v>
+      </c>
+      <c r="I7" s="138">
+        <v>12.25</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="7">
-        <v>1284</v>
+        <v>1196</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7">
-        <v>124</v>
+        <v>289</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="118">
-        <v>31051</v>
-      </c>
-      <c r="I8" s="117">
-        <v>12.3</v>
+        <v>24</v>
+      </c>
+      <c r="H8" s="139">
+        <v>35886</v>
+      </c>
+      <c r="I8" s="138">
+        <v>9.9499999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="7">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="118">
-        <v>31050</v>
-      </c>
-      <c r="I9" s="117">
-        <v>13.25</v>
+        <v>29</v>
+      </c>
+      <c r="H9" s="139">
+        <v>31051</v>
+      </c>
+      <c r="I9" s="138">
+        <v>12.3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="7">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="118">
-        <v>30939</v>
-      </c>
-      <c r="I10" s="117">
-        <v>10.199999999999999</v>
+        <v>40</v>
+      </c>
+      <c r="H10" s="139">
+        <v>31050</v>
+      </c>
+      <c r="I10" s="138">
+        <v>13.25</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="7">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F11" s="7">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="118">
-        <v>32863</v>
-      </c>
-      <c r="I11" s="117">
-        <v>12.2</v>
+        <v>24</v>
+      </c>
+      <c r="H11" s="139">
+        <v>30939</v>
+      </c>
+      <c r="I11" s="138">
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="7">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F12" s="7">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="118">
-        <v>30900</v>
-      </c>
-      <c r="I12" s="117">
-        <v>14.25</v>
+      <c r="H12" s="139">
+        <v>32863</v>
+      </c>
+      <c r="I12" s="138">
+        <v>12.2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="7">
-        <v>1310</v>
+        <v>1302</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="118">
-        <v>31689</v>
-      </c>
-      <c r="I13" s="117">
-        <v>11.5</v>
+      <c r="H13" s="139">
+        <v>30900</v>
+      </c>
+      <c r="I13" s="138">
+        <v>14.25</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="7">
-        <v>1329</v>
+        <v>1310</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="118">
-        <v>32561</v>
-      </c>
-      <c r="I14" s="117">
-        <v>10.35</v>
+        <v>29</v>
+      </c>
+      <c r="H14" s="139">
+        <v>31689</v>
+      </c>
+      <c r="I14" s="138">
+        <v>11.5</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="7">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F15" s="7">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="118">
-        <v>32979</v>
-      </c>
-      <c r="I15" s="117">
-        <v>10.15</v>
+        <v>40</v>
+      </c>
+      <c r="H15" s="139">
+        <v>32561</v>
+      </c>
+      <c r="I15" s="138">
+        <v>10.35</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="7">
-        <v>1368</v>
+        <v>1333</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="118">
-        <v>30386</v>
-      </c>
-      <c r="I16" s="117">
-        <v>12.25</v>
+        <v>24</v>
+      </c>
+      <c r="H16" s="139">
+        <v>32979</v>
+      </c>
+      <c r="I16" s="138">
+        <v>10.15</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="7">
-        <v>1509</v>
+        <v>1368</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="118">
-        <v>31217</v>
-      </c>
-      <c r="I17" s="117">
-        <v>13.25</v>
+        <v>40</v>
+      </c>
+      <c r="H17" s="139">
+        <v>30386</v>
+      </c>
+      <c r="I17" s="138">
+        <v>12.25</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="7">
-        <v>1516</v>
+        <v>1509</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F18" s="7">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="118">
-        <v>31112</v>
-      </c>
-      <c r="I18" s="117">
-        <v>9.5</v>
+        <v>29</v>
+      </c>
+      <c r="H18" s="139">
+        <v>31217</v>
+      </c>
+      <c r="I18" s="138">
+        <v>13.25</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="7">
-        <v>1529</v>
+        <v>1516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F19" s="7">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="118">
-        <v>31805</v>
-      </c>
-      <c r="I19" s="117">
-        <v>11.3</v>
+        <v>40</v>
+      </c>
+      <c r="H19" s="139">
+        <v>31112</v>
+      </c>
+      <c r="I19" s="138">
+        <v>9.5</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="7">
-        <v>1656</v>
+        <v>1529</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F20" s="7">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="118">
-        <v>32125</v>
-      </c>
-      <c r="I20" s="117">
-        <v>12.35</v>
+      <c r="H20" s="139">
+        <v>31805</v>
+      </c>
+      <c r="I20" s="138">
+        <v>11.3</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="7">
-        <v>1672</v>
+        <v>1656</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F21" s="7">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="118">
-        <v>32979</v>
-      </c>
-      <c r="I21" s="117">
-        <v>11.9</v>
+      <c r="H21" s="139">
+        <v>32125</v>
+      </c>
+      <c r="I21" s="138">
+        <v>12.35</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="7">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F22" s="7">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="118">
-        <v>33688</v>
-      </c>
-      <c r="I22" s="117">
-        <v>11.85</v>
+        <v>29</v>
+      </c>
+      <c r="H22" s="139">
+        <v>32979</v>
+      </c>
+      <c r="I22" s="138">
+        <v>11.9</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="7">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F23" s="7">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="118">
-        <v>29885</v>
-      </c>
-      <c r="I23" s="117">
-        <v>10.75</v>
+        <v>40</v>
+      </c>
+      <c r="H23" s="139">
+        <v>33688</v>
+      </c>
+      <c r="I23" s="138">
+        <v>11.85</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="7">
-        <v>1721</v>
+        <v>1676</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F24" s="7">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="118">
-        <v>33091</v>
-      </c>
-      <c r="I24" s="117">
-        <v>9.75</v>
+        <v>29</v>
+      </c>
+      <c r="H24" s="139">
+        <v>29885</v>
+      </c>
+      <c r="I24" s="138">
+        <v>10.75</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="7">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F25" s="7">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="118">
-        <v>28531</v>
-      </c>
-      <c r="I25" s="117">
-        <v>13.95</v>
+        <v>24</v>
+      </c>
+      <c r="H25" s="139">
+        <v>33091</v>
+      </c>
+      <c r="I25" s="138">
+        <v>9.75</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="7">
-        <v>1758</v>
+        <v>1723</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F26" s="7">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="118">
-        <v>30028</v>
-      </c>
-      <c r="I26" s="117">
-        <v>11.2</v>
+        <v>29</v>
+      </c>
+      <c r="H26" s="139">
+        <v>28531</v>
+      </c>
+      <c r="I26" s="138">
+        <v>13.95</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="7">
-        <v>1792</v>
+        <v>1758</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F27" s="7">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="118">
-        <v>33231</v>
-      </c>
-      <c r="I27" s="117">
-        <v>10.3</v>
+        <v>40</v>
+      </c>
+      <c r="H27" s="139">
+        <v>30028</v>
+      </c>
+      <c r="I27" s="138">
+        <v>11.2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7">
-        <v>1814</v>
+        <v>1792</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="7">
         <v>111</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" s="7">
-        <v>103</v>
-      </c>
       <c r="G28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="118">
-        <v>32571</v>
-      </c>
-      <c r="I28" s="117">
-        <v>12.25</v>
+        <v>29</v>
+      </c>
+      <c r="H28" s="139">
+        <v>33231</v>
+      </c>
+      <c r="I28" s="138">
+        <v>10.3</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7">
-        <v>1908</v>
+        <v>1814</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F29" s="7">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="118">
-        <v>30817</v>
-      </c>
-      <c r="I29" s="117">
-        <v>10.25</v>
+        <v>24</v>
+      </c>
+      <c r="H29" s="139">
+        <v>32571</v>
+      </c>
+      <c r="I29" s="138">
+        <v>12.25</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="7">
-        <v>1931</v>
+        <v>1908</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F30" s="7">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="118">
-        <v>32679</v>
-      </c>
-      <c r="I30" s="117">
-        <v>9.85</v>
+        <v>29</v>
+      </c>
+      <c r="H30" s="139">
+        <v>30817</v>
+      </c>
+      <c r="I30" s="138">
+        <v>10.25</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="7">
-        <v>1960</v>
+        <v>1931</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F31" s="7">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="118">
-        <v>31729</v>
-      </c>
-      <c r="I31" s="117">
-        <v>11.65</v>
+        <v>40</v>
+      </c>
+      <c r="H31" s="139">
+        <v>32679</v>
+      </c>
+      <c r="I31" s="138">
+        <v>9.85</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="7">
-        <v>1964</v>
+        <v>1960</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F32" s="7">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" s="118">
-        <v>33559</v>
-      </c>
-      <c r="I32" s="117">
-        <v>9.25</v>
+        <v>29</v>
+      </c>
+      <c r="H32" s="139">
+        <v>31729</v>
+      </c>
+      <c r="I32" s="138">
+        <v>11.65</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="7">
-        <v>1975</v>
+        <v>1964</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F33" s="7">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="118">
-        <v>35125</v>
-      </c>
-      <c r="I33" s="117">
+      <c r="H33" s="139">
+        <v>33559</v>
+      </c>
+      <c r="I33" s="138">
         <v>9.25</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="7">
-        <v>1983</v>
+        <v>1975</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F34" s="7">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" s="118">
-        <v>35609</v>
-      </c>
-      <c r="I34" s="117">
-        <v>11</v>
+        <v>40</v>
+      </c>
+      <c r="H34" s="139">
+        <v>35125</v>
+      </c>
+      <c r="I34" s="138">
+        <v>9.25</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="7">
-        <v>1990</v>
+        <v>1983</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F35" s="7">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="118">
-        <v>35840</v>
-      </c>
-      <c r="I35" s="117">
-        <v>10.95</v>
+      <c r="H35" s="139">
+        <v>35609</v>
+      </c>
+      <c r="I35" s="138">
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="7">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F36" s="7">
         <v>198</v>
@@ -11448,44 +11737,104 @@
       <c r="G36" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="118">
-        <v>35855</v>
-      </c>
-      <c r="I36" s="117">
-        <v>11.75</v>
+      <c r="H36" s="139">
+        <v>35840</v>
+      </c>
+      <c r="I36" s="138">
+        <v>10.95</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="7">
+        <v>1995</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="7">
+        <v>198</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="139">
+        <v>35855</v>
+      </c>
+      <c r="I37" s="138">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="7">
         <v>1999</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E38" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F38" s="7">
         <v>428</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="118">
+      <c r="H38" s="139">
         <v>35981</v>
       </c>
-      <c r="I37" s="117">
+      <c r="I38" s="138">
         <v>10.15</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I38" xr:uid="{00000000-0001-0000-1100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="20481" r:id="rId3" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!FormatTable">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>311150</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>31750</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>63500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
@@ -11525,7 +11874,7 @@
       <c r="F2" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="125"/>
+      <c r="G2" s="124"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="10">
@@ -11884,6 +12233,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE727711-D0A2-4196-A6AA-50DDE55C0A6F}">
+  <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -13010,8 +13360,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
@@ -13028,10 +13378,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13" thickBot="1"/>
     <row r="2" spans="1:2" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="129" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="131"/>
+      <c r="B2" s="130"/>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="62" t="s">
@@ -13050,7 +13400,7 @@
         <v>229</v>
       </c>
       <c r="B5" s="58">
-        <f>HLOOKUP($B$3,'Master Inventory List'!$A$2:$G$5,2,FALSE)</f>
+        <f>HLOOKUP($B$3,'Master Inventory List'!$A$2:$G$5,MATCH(LEFT($A5,11),'Master Inventory List'!$A$2:$A$5,0),FALSE)</f>
         <v>150</v>
       </c>
     </row>
@@ -13059,7 +13409,7 @@
         <v>228</v>
       </c>
       <c r="B6" s="58">
-        <f>HLOOKUP($B$3,'Master Inventory List'!$A$2:$G$5,3,FALSE)</f>
+        <f>HLOOKUP($B$3,'Master Inventory List'!$A$2:$G$5,MATCH(LEFT($A6,11),'Master Inventory List'!$A$2:$A$5,0),FALSE)</f>
         <v>110</v>
       </c>
     </row>
@@ -13068,7 +13418,7 @@
         <v>227</v>
       </c>
       <c r="B7" s="58">
-        <f>HLOOKUP($B$3,'Master Inventory List'!$A$2:$G$5,4,FALSE)</f>
+        <f>HLOOKUP($B$3,'Master Inventory List'!$A$2:$G$5,MATCH(LEFT($A7,11),'Master Inventory List'!$A$2:$A$5,0),FALSE)</f>
         <v>115</v>
       </c>
     </row>
@@ -13196,6 +13546,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A99380-3415-42C6-8C41-613698A280FA}">
+  <sheetPr codeName="Sheet20"/>
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -13213,24 +13564,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="41.25" customHeight="1" thickBot="1">
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="120" t="s">
         <v>281</v>
       </c>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="123" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="14">
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="119" t="s">
         <v>283</v>
       </c>
-      <c r="C3" s="122" t="s">
+      <c r="C3" s="121" t="s">
         <v>240</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="F3" s="123" t="s">
+      <c r="F3" s="122" t="s">
         <v>239</v>
       </c>
     </row>
@@ -14467,8 +14818,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A2:H26"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -14527,8 +14878,12 @@
         <v>110</v>
       </c>
       <c r="G3" s="17" t="str">
-        <f>RIGHT(A3,2)</f>
+        <f>IF(H3= 8,RIGHT(A3,2),RIGHT(A3,4))</f>
         <v>WW</v>
+      </c>
+      <c r="H3">
+        <f>LEN(A3)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="13">
@@ -14542,9 +14897,22 @@
         <v>12.19</v>
       </c>
       <c r="D4" s="37"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="E4" s="17" t="str">
+        <f>LEFT(A4,3)</f>
+        <v>ACM</v>
+      </c>
+      <c r="F4" s="17" t="str">
+        <f>MID(A4,4,3)</f>
+        <v>111</v>
+      </c>
+      <c r="G4" s="17" t="str">
+        <f t="shared" ref="G4:G26" si="0">IF(H4= 8,RIGHT(A4,2),RIGHT(A4,4))</f>
+        <v>WW</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H26" si="1">LEN(A4)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="13">
       <c r="A5" s="22" t="s">
@@ -14557,9 +14925,22 @@
         <v>10.89</v>
       </c>
       <c r="D5" s="37"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="E5" s="17" t="str">
+        <f t="shared" ref="E5:E26" si="2">LEFT(A5,3)</f>
+        <v>ACM</v>
+      </c>
+      <c r="F5" s="17" t="str">
+        <f t="shared" ref="F5:F26" si="3">MID(A5,4,3)</f>
+        <v>150</v>
+      </c>
+      <c r="G5" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>WW</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="13">
       <c r="A6" s="22" t="s">
@@ -14572,9 +14953,22 @@
         <v>9.75</v>
       </c>
       <c r="D6" s="37"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="E6" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>ACM</v>
+      </c>
+      <c r="F6" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>321</v>
+      </c>
+      <c r="G6" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>DP</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="13">
       <c r="A7" s="22" t="s">
@@ -14587,9 +14981,22 @@
         <v>9.59</v>
       </c>
       <c r="D7" s="37"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="E7" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>ACM</v>
+      </c>
+      <c r="F7" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>322</v>
+      </c>
+      <c r="G7" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>DP</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="13">
       <c r="A8" s="22" t="s">
@@ -14602,9 +15009,22 @@
         <v>10.4</v>
       </c>
       <c r="D8" s="37"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="E8" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>ACM</v>
+      </c>
+      <c r="F8" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>325</v>
+      </c>
+      <c r="G8" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>DP</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="13">
       <c r="A9" s="22" t="s">
@@ -14617,9 +15037,22 @@
         <v>10.56</v>
       </c>
       <c r="D9" s="37"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="E9" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>ACM</v>
+      </c>
+      <c r="F9" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>330</v>
+      </c>
+      <c r="G9" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>DP</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="13">
       <c r="A10" s="22" t="s">
@@ -14632,9 +15065,22 @@
         <v>9.75</v>
       </c>
       <c r="D10" s="37"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="E10" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>ACM</v>
+      </c>
+      <c r="F10" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="G10" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>DP</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="13">
       <c r="A11" s="22" t="s">
@@ -14647,9 +15093,22 @@
         <v>9.75</v>
       </c>
       <c r="D11" s="37"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="E11" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>ACM</v>
+      </c>
+      <c r="F11" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>460</v>
+      </c>
+      <c r="G11" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>DP</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="13">
       <c r="A12" s="22" t="s">
@@ -14662,9 +15121,22 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="D12" s="37"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="E12" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>AST</v>
+      </c>
+      <c r="F12" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>530</v>
+      </c>
+      <c r="G12" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>OL</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="13">
       <c r="A13" s="22" t="s">
@@ -14677,9 +15149,22 @@
         <v>5.04</v>
       </c>
       <c r="D13" s="37"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="E13" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>AST</v>
+      </c>
+      <c r="F13" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="G13" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>TF</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="13">
       <c r="A14" s="22" t="s">
@@ -14692,9 +15177,22 @@
         <v>3.9</v>
       </c>
       <c r="D14" s="37"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="E14" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>AST</v>
+      </c>
+      <c r="F14" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="G14" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>OL</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="13">
       <c r="A15" s="22" t="s">
@@ -14707,9 +15205,22 @@
         <v>4.55</v>
       </c>
       <c r="D15" s="37"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="E15" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>AST</v>
+      </c>
+      <c r="F15" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="G15" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>OL</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="13">
       <c r="A16" s="22" t="s">
@@ -14722,11 +15233,24 @@
         <v>5.2</v>
       </c>
       <c r="D16" s="37"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" ht="13">
+      <c r="E16" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>AST</v>
+      </c>
+      <c r="F16" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="G16" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>GO</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="13">
       <c r="A17" s="22" t="s">
         <v>209</v>
       </c>
@@ -14737,11 +15261,24 @@
         <v>7.31</v>
       </c>
       <c r="D17" s="37"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7" ht="13">
+      <c r="E17" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>AST</v>
+      </c>
+      <c r="F17" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="G17" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>BF</v>
+      </c>
+      <c r="H17">
+        <f>LEN(A17)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="13">
       <c r="A18" s="22" t="s">
         <v>210</v>
       </c>
@@ -14752,11 +15289,24 @@
         <v>6.5</v>
       </c>
       <c r="D18" s="37"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:7" ht="13">
+      <c r="E18" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>AST</v>
+      </c>
+      <c r="F18" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+      <c r="G18" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>PS</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="13">
       <c r="A19" s="22" t="s">
         <v>178</v>
       </c>
@@ -14767,11 +15317,24 @@
         <v>4.55</v>
       </c>
       <c r="D19" s="37"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:7" ht="13">
+      <c r="E19" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>AST</v>
+      </c>
+      <c r="F19" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="G19" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>0995</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="13">
       <c r="A20" s="22" t="s">
         <v>211</v>
       </c>
@@ -14782,11 +15345,24 @@
         <v>14.3</v>
       </c>
       <c r="D20" s="37"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="1:7" ht="13">
+      <c r="E20" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>BVR</v>
+      </c>
+      <c r="F20" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>590</v>
+      </c>
+      <c r="G20" s="17" t="str">
+        <f>IF(H20= 8,RIGHT(A20,2),RIGHT(A20,4))</f>
+        <v>WF</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="13">
       <c r="A21" s="22" t="s">
         <v>212</v>
       </c>
@@ -14797,11 +15373,24 @@
         <v>13.81</v>
       </c>
       <c r="D21" s="37"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="1:7" ht="13">
+      <c r="E21" s="17" t="str">
+        <f>LEFT(A21,3)</f>
+        <v>BVR</v>
+      </c>
+      <c r="F21" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>690</v>
+      </c>
+      <c r="G21" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>AF</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13">
       <c r="A22" s="22" t="s">
         <v>217</v>
       </c>
@@ -14812,11 +15401,24 @@
         <v>7.31</v>
       </c>
       <c r="D22" s="37"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="1:7" ht="13">
+      <c r="E22" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>TRA</v>
+      </c>
+      <c r="F22" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>203</v>
+      </c>
+      <c r="G22" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>OF</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="13">
       <c r="A23" s="22" t="s">
         <v>218</v>
       </c>
@@ -14827,11 +15429,24 @@
         <v>7.31</v>
       </c>
       <c r="D23" s="37"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="1:7" ht="13">
+      <c r="E23" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>TRA</v>
+      </c>
+      <c r="F23" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="G23" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>OF</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="13">
       <c r="A24" s="22" t="s">
         <v>214</v>
       </c>
@@ -14842,11 +15457,24 @@
         <v>7.31</v>
       </c>
       <c r="D24" s="37"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="1:7" ht="13">
+      <c r="E24" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>TRA</v>
+      </c>
+      <c r="F24" s="17" t="str">
+        <f>MID(A24,4,3)</f>
+        <v>207</v>
+      </c>
+      <c r="G24" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>OF</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="13">
       <c r="A25" s="22" t="s">
         <v>215</v>
       </c>
@@ -14857,11 +15485,24 @@
         <v>7.64</v>
       </c>
       <c r="D25" s="37"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="1:7" ht="13">
+      <c r="E25" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>TRA</v>
+      </c>
+      <c r="F25" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>310</v>
+      </c>
+      <c r="G25" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>OF</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="13">
       <c r="A26" s="22" t="s">
         <v>216</v>
       </c>
@@ -14872,9 +15513,22 @@
         <v>6.14</v>
       </c>
       <c r="D26" s="37"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="E26" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>TRA</v>
+      </c>
+      <c r="F26" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>610</v>
+      </c>
+      <c r="G26" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>OF</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
